--- a/figures/SuppTables/Supplementary_Table_4.xlsx
+++ b/figures/SuppTables/Supplementary_Table_4.xlsx
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -13371,7 +13371,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -14577,7 +14577,7 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -14595,7 +14595,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -15225,7 +15225,7 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>iron import</t>
         </is>
       </c>
     </row>
@@ -17907,7 +17907,7 @@
       </c>
       <c r="D975" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -19707,7 +19707,7 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -21813,7 +21813,7 @@
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -21939,7 +21939,7 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -21975,7 +21975,7 @@
       </c>
       <c r="D1201" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>efflux pumps and regulators</t>
         </is>
       </c>
     </row>
@@ -24099,7 +24099,7 @@
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -24333,7 +24333,7 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -25935,7 +25935,7 @@
       </c>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -26187,7 +26187,7 @@
       </c>
       <c r="D1435" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -26493,7 +26493,7 @@
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -27609,7 +27609,7 @@
       </c>
       <c r="D1514" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -33513,7 +33513,7 @@
       </c>
       <c r="D1842" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -34125,7 +34125,7 @@
       </c>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -34827,7 +34827,7 @@
       </c>
       <c r="D1915" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -37257,7 +37257,7 @@
       </c>
       <c r="D2050" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -37743,7 +37743,7 @@
       </c>
       <c r="D2077" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -39471,7 +39471,7 @@
       </c>
       <c r="D2173" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -39651,7 +39651,7 @@
       </c>
       <c r="D2183" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>respiration</t>
         </is>
       </c>
     </row>
@@ -41181,7 +41181,7 @@
       </c>
       <c r="D2268" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -43917,7 +43917,7 @@
       </c>
       <c r="D2420" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -46599,7 +46599,7 @@
       </c>
       <c r="D2569" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -47427,7 +47427,7 @@
       </c>
       <c r="D2615" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -49515,7 +49515,7 @@
       </c>
       <c r="D2731" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -51063,7 +51063,7 @@
       </c>
       <c r="D2817" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -52485,7 +52485,7 @@
       </c>
       <c r="D2896" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -53637,7 +53637,7 @@
       </c>
       <c r="D2960" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -54627,7 +54627,7 @@
       </c>
       <c r="D3015" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -55905,7 +55905,7 @@
       </c>
       <c r="D3086" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -56355,7 +56355,7 @@
       </c>
       <c r="D3111" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -57273,7 +57273,7 @@
       </c>
       <c r="D3162" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -58065,7 +58065,7 @@
       </c>
       <c r="D3206" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -58695,7 +58695,7 @@
       </c>
       <c r="D3241" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -59541,7 +59541,7 @@
       </c>
       <c r="D3288" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -60315,7 +60315,7 @@
       </c>
       <c r="D3331" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -61629,7 +61629,7 @@
       </c>
       <c r="D3404" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -62187,7 +62187,7 @@
       </c>
       <c r="D3435" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -62421,7 +62421,7 @@
       </c>
       <c r="D3448" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -62943,7 +62943,7 @@
       </c>
       <c r="D3477" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -64833,7 +64833,7 @@
       </c>
       <c r="D3582" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -64995,7 +64995,7 @@
       </c>
       <c r="D3591" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -65229,7 +65229,7 @@
       </c>
       <c r="D3604" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -65337,7 +65337,7 @@
       </c>
       <c r="D3610" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -65913,7 +65913,7 @@
       </c>
       <c r="D3642" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -66345,7 +66345,7 @@
       </c>
       <c r="D3666" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -66525,7 +66525,7 @@
       </c>
       <c r="D3676" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -67047,7 +67047,7 @@
       </c>
       <c r="D3705" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -67551,7 +67551,7 @@
       </c>
       <c r="D3733" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -70035,7 +70035,7 @@
       </c>
       <c r="D3871" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -71439,7 +71439,7 @@
       </c>
       <c r="D3949" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -71655,7 +71655,7 @@
       </c>
       <c r="D3961" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -71925,7 +71925,7 @@
       </c>
       <c r="D3976" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -73185,7 +73185,7 @@
       </c>
       <c r="D4046" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -73581,7 +73581,7 @@
       </c>
       <c r="D4068" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -73617,7 +73617,7 @@
       </c>
       <c r="D4070" t="inlineStr">
         <is>
-          <t>OMPs</t>
+          <t>other</t>
         </is>
       </c>
     </row>
